--- a/core/media/Plantilla_ejemplo.xlsx
+++ b/core/media/Plantilla_ejemplo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roark\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EF1D6D-4597-424B-9C18-287BF9231A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DC779C-CB71-492A-A755-017D5D41ED44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17970" yWindow="3375" windowWidth="17220" windowHeight="8325" xr2:uid="{7C554B13-F668-4796-A27B-C91BA5CAC12A}"/>
+    <workbookView xWindow="1950" yWindow="4020" windowWidth="21585" windowHeight="11370" xr2:uid="{7C554B13-F668-4796-A27B-C91BA5CAC12A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,20 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
-  <si>
-    <t>codigo</t>
-  </si>
-  <si>
-    <t>nombre</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>ninguno</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>cliente</t>
   </si>
   <si>
@@ -62,80 +51,47 @@
     <t>producto</t>
   </si>
   <si>
-    <t>cantidad</t>
-  </si>
-  <si>
     <t>prioridad</t>
   </si>
   <si>
-    <t>linea_produccion</t>
+    <t>orden_pedido</t>
+  </si>
+  <si>
+    <t>version</t>
   </si>
   <si>
     <t>estado</t>
   </si>
   <si>
-    <t>empresa1</t>
-  </si>
-  <si>
-    <t>Pedido 117</t>
-  </si>
-  <si>
-    <t>bajo</t>
-  </si>
-  <si>
-    <t>delgado</t>
-  </si>
-  <si>
-    <t>Pendiente</t>
-  </si>
-  <si>
-    <t>empresa2</t>
-  </si>
-  <si>
-    <t>Pedido 118</t>
-  </si>
-  <si>
-    <t>empresa3</t>
-  </si>
-  <si>
-    <t>Pedido 119</t>
-  </si>
-  <si>
-    <t>empresa4</t>
-  </si>
-  <si>
-    <t>Pedido 120</t>
-  </si>
-  <si>
-    <t>empresa5</t>
-  </si>
-  <si>
-    <t>Pedido 121</t>
-  </si>
-  <si>
-    <t>empresa6</t>
-  </si>
-  <si>
-    <t>Pedido 122</t>
-  </si>
-  <si>
-    <t>empresa7</t>
-  </si>
-  <si>
-    <t>Pedido 123</t>
-  </si>
-  <si>
-    <t>empresa8</t>
-  </si>
-  <si>
-    <t>Pedido 124</t>
+    <t>pendiente</t>
+  </si>
+  <si>
+    <t>fecha_produccion</t>
+  </si>
+  <si>
+    <t>Bajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Producto 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Producto 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Producto 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Producto 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Producto 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +105,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -158,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -166,34 +136,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -510,306 +470,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D95567-2C62-472D-9028-0AE7B1CFE97A}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>45206</v>
+      </c>
+      <c r="C2" s="4">
+        <v>45209</v>
+      </c>
+      <c r="D2" s="5">
+        <v>52</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B3" s="4">
+        <v>45206</v>
+      </c>
+      <c r="C3" s="4">
+        <v>45209</v>
+      </c>
+      <c r="D3" s="5">
+        <v>53</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>45206</v>
+      </c>
+      <c r="C4" s="4">
+        <v>45209</v>
+      </c>
+      <c r="D4" s="5">
+        <v>54</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="5">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>45206</v>
+      </c>
+      <c r="C5" s="4">
+        <v>45209</v>
+      </c>
+      <c r="D5" s="5">
+        <v>55</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="5">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>45206</v>
+      </c>
+      <c r="C6" s="4">
+        <v>45209</v>
+      </c>
+      <c r="D6" s="5">
+        <v>56</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3">
-        <v>45177</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2">
-        <v>23</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3">
-        <v>45178</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2">
-        <v>23</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3">
-        <v>45179</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3</v>
-      </c>
-      <c r="H4" s="2">
-        <v>23</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3">
-        <v>45180</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="2">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2">
-        <v>23</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="3">
-        <v>45181</v>
-      </c>
-      <c r="D6" s="2">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="2">
-        <v>3</v>
-      </c>
-      <c r="H6" s="2">
-        <v>23</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="3">
-        <v>45182</v>
-      </c>
-      <c r="D7" s="2">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="2">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2">
-        <v>23</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="3">
-        <v>45183</v>
-      </c>
-      <c r="D8" s="2">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="2">
-        <v>3</v>
-      </c>
-      <c r="H8" s="2">
-        <v>23</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="3">
-        <v>45184</v>
-      </c>
-      <c r="D9" s="2">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="2">
-        <v>3</v>
-      </c>
-      <c r="H9" s="2">
-        <v>23</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="I6" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/core/media/Plantilla_ejemplo.xlsx
+++ b/core/media/Plantilla_ejemplo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DC779C-CB71-492A-A755-017D5D41ED44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D622535A-7DDF-4040-A141-13B4BCCCD328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="4020" windowWidth="21585" windowHeight="11370" xr2:uid="{7C554B13-F668-4796-A27B-C91BA5CAC12A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7C554B13-F668-4796-A27B-C91BA5CAC12A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>ninguno</t>
   </si>
@@ -69,29 +69,68 @@
     <t>fecha_produccion</t>
   </si>
   <si>
-    <t>Bajo</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Producto 1</t>
   </si>
   <si>
-    <t xml:space="preserve"> Producto 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Producto 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Producto 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Producto 5</t>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>nombre_linea</t>
+  </si>
+  <si>
+    <t>mercado</t>
+  </si>
+  <si>
+    <t>largo</t>
+  </si>
+  <si>
+    <t>ancho</t>
+  </si>
+  <si>
+    <t>alto</t>
+  </si>
+  <si>
+    <t>paquetes_solicitados</t>
+  </si>
+  <si>
+    <t>paquetes_saldo</t>
+  </si>
+  <si>
+    <t>cantidad_piezas</t>
+  </si>
+  <si>
+    <t>cantidad_trozos</t>
+  </si>
+  <si>
+    <t>piezas_xpaquete</t>
+  </si>
+  <si>
+    <t>diametro</t>
+  </si>
+  <si>
+    <t>piezas_xtrozo</t>
+  </si>
+  <si>
+    <t>puerto_destino</t>
+  </si>
+  <si>
+    <t>volumen_producto</t>
+  </si>
+  <si>
+    <t>Grueso</t>
+  </si>
+  <si>
+    <t>JAPON</t>
+  </si>
+  <si>
+    <t>NAGOYA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,14 +143,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -142,7 +173,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -156,6 +186,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D95567-2C62-472D-9028-0AE7B1CFE97A}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,190 +512,162 @@
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:24" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3">
+        <v>45206</v>
+      </c>
+      <c r="H2" s="3">
+        <v>45209</v>
+      </c>
+      <c r="I2">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>75</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>8</v>
+      </c>
+      <c r="M2">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="N2">
+        <v>42</v>
+      </c>
+      <c r="O2">
+        <v>350</v>
+      </c>
+      <c r="P2">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>24</v>
+      </c>
+      <c r="R2">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
+      <c r="S2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2">
+        <v>12</v>
+      </c>
+      <c r="U2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>300</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>45206</v>
-      </c>
-      <c r="C2" s="4">
-        <v>45209</v>
-      </c>
-      <c r="D2" s="5">
-        <v>52</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>45206</v>
-      </c>
-      <c r="C3" s="4">
-        <v>45209</v>
-      </c>
-      <c r="D3" s="5">
-        <v>53</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>45206</v>
-      </c>
-      <c r="C4" s="4">
-        <v>45209</v>
-      </c>
-      <c r="D4" s="5">
-        <v>54</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4">
-        <v>45206</v>
-      </c>
-      <c r="C5" s="4">
-        <v>45209</v>
-      </c>
-      <c r="D5" s="5">
-        <v>55</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4">
-        <v>45206</v>
-      </c>
-      <c r="C6" s="4">
-        <v>45209</v>
-      </c>
-      <c r="D6" s="5">
-        <v>56</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q3" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/core/media/Plantilla_ejemplo.xlsx
+++ b/core/media/Plantilla_ejemplo.xlsx
@@ -591,9 +591,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="5.0"/>
     <col customWidth="1" min="2" max="2" width="6.86"/>
-    <col customWidth="1" min="3" max="3" width="8.57"/>
-    <col customWidth="1" min="4" max="4" width="5.43"/>
-    <col customWidth="1" min="5" max="5" width="8.57"/>
+    <col customWidth="1" min="3" max="5" width="8.57"/>
     <col customWidth="1" min="6" max="6" width="3.71"/>
     <col customWidth="1" min="7" max="7" width="5.43"/>
     <col customWidth="1" min="8" max="8" width="11.86"/>
@@ -608,13 +606,14 @@
     <col customWidth="1" min="21" max="21" width="4.29"/>
     <col customWidth="1" min="22" max="22" width="12.43"/>
     <col customWidth="1" min="23" max="23" width="5.0"/>
-    <col customWidth="1" min="24" max="24" width="6.29"/>
-    <col customWidth="1" min="25" max="25" width="4.57"/>
+    <col customWidth="1" min="24" max="24" width="8.0"/>
+    <col customWidth="1" min="25" max="25" width="8.71"/>
     <col customWidth="1" min="26" max="26" width="10.43"/>
     <col customWidth="1" min="27" max="27" width="9.71"/>
     <col customWidth="1" min="28" max="28" width="16.43"/>
     <col customWidth="1" min="29" max="29" width="13.29"/>
-    <col customWidth="1" min="30" max="31" width="10.71"/>
+    <col customWidth="1" min="30" max="30" width="15.0"/>
+    <col customWidth="1" min="31" max="31" width="10.71"/>
     <col customWidth="1" min="32" max="32" width="17.57"/>
     <col customWidth="1" min="33" max="37" width="10.71"/>
   </cols>
@@ -1977,7 +1976,7 @@
         <v>59.46</v>
       </c>
       <c r="Y13" s="15">
-        <v>25195.0</v>
+        <v>25.19</v>
       </c>
       <c r="Z13" s="2" t="s">
         <v>63</v>
@@ -2084,7 +2083,7 @@
         <v>37.458</v>
       </c>
       <c r="Y14" s="15">
-        <v>15872.0</v>
+        <v>15.87</v>
       </c>
       <c r="Z14" s="2" t="s">
         <v>63</v>
@@ -2191,7 +2190,7 @@
         <v>35.676</v>
       </c>
       <c r="Y15" s="15">
-        <v>15117.0</v>
+        <v>15.11</v>
       </c>
       <c r="Z15" s="2" t="s">
         <v>63</v>
@@ -2298,7 +2297,7 @@
         <v>12.486</v>
       </c>
       <c r="Y16" s="15">
-        <v>5291.0</v>
+        <v>52.91</v>
       </c>
       <c r="Z16" s="2" t="s">
         <v>63</v>
@@ -2405,7 +2404,7 @@
         <v>26.63</v>
       </c>
       <c r="Y17" s="6">
-        <v>11284.0</v>
+        <v>11.284</v>
       </c>
       <c r="Z17" s="2" t="s">
         <v>41</v>
@@ -2512,7 +2511,7 @@
         <v>52.825</v>
       </c>
       <c r="Y18" s="6">
-        <v>22383.0</v>
+        <v>22.383</v>
       </c>
       <c r="Z18" s="2" t="s">
         <v>41</v>

--- a/core/media/Plantilla_ejemplo.xlsx
+++ b/core/media/Plantilla_ejemplo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roark\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E53E098-DC53-4B97-96BC-A6A15F291284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A746B727-38DD-4FD2-ACCA-BB27C9C0ECDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19965" yWindow="2520" windowWidth="15375" windowHeight="8415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
     <t>2023-11-25</t>
   </si>
   <si>
-    <t>2023-12-05</t>
+    <t>2023-12-15</t>
   </si>
 </sst>
 </file>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="AB24" sqref="AB24"/>
+    <sheetView tabSelected="1" topLeftCell="K14" workbookViewId="0">
+      <selection activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/core/media/Plantilla_ejemplo.xlsx
+++ b/core/media/Plantilla_ejemplo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roark\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A746B727-38DD-4FD2-ACCA-BB27C9C0ECDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E53E098-DC53-4B97-96BC-A6A15F291284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19965" yWindow="2520" windowWidth="15375" windowHeight="8415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
     <t>2023-11-25</t>
   </si>
   <si>
-    <t>2023-12-15</t>
+    <t>2023-12-05</t>
   </si>
 </sst>
 </file>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K14" workbookViewId="0">
-      <selection activeCell="AB19" sqref="AB19"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="AB24" sqref="AB24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/core/media/Plantilla_ejemplo.xlsx
+++ b/core/media/Plantilla_ejemplo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roark\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A746B727-38DD-4FD2-ACCA-BB27C9C0ECDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8A256D-5D18-4065-935B-A5CC0F1BBB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -243,9 +243,6 @@
     <t>JPN-113-025 MK-14</t>
   </si>
   <si>
-    <t>2023-10-31</t>
-  </si>
-  <si>
     <t>2023-11-15</t>
   </si>
   <si>
@@ -256,6 +253,9 @@
   </si>
   <si>
     <t>2023-12-15</t>
+  </si>
+  <si>
+    <t>2023-11-14</t>
   </si>
 </sst>
 </file>
@@ -340,7 +340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -378,6 +378,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
@@ -596,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K14" workbookViewId="0">
-      <selection activeCell="AB19" sqref="AB19"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AA31" sqref="AA31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -817,7 +820,7 @@
         <v>41</v>
       </c>
       <c r="AB2" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AC2" s="12" t="s">
         <v>42</v>
@@ -920,8 +923,8 @@
       <c r="AA3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AB3" s="11" t="s">
-        <v>72</v>
+      <c r="AB3" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="AC3" s="12" t="s">
         <v>42</v>
@@ -1024,8 +1027,8 @@
       <c r="AA4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="AB4" s="11" t="s">
-        <v>72</v>
+      <c r="AB4" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="AC4" s="12" t="s">
         <v>42</v>
@@ -1128,8 +1131,8 @@
       <c r="AA5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AB5" s="11" t="s">
-        <v>72</v>
+      <c r="AB5" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="AC5" s="12" t="s">
         <v>42</v>
@@ -1232,8 +1235,8 @@
       <c r="AA6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AB6" s="11" t="s">
-        <v>72</v>
+      <c r="AB6" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="AC6" s="12" t="s">
         <v>42</v>
@@ -1336,8 +1339,8 @@
       <c r="AA7" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AB7" s="11" t="s">
-        <v>72</v>
+      <c r="AB7" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="AC7" s="12" t="s">
         <v>42</v>
@@ -1440,8 +1443,8 @@
       <c r="AA8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AB8" s="11" t="s">
-        <v>72</v>
+      <c r="AB8" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="AC8" s="12" t="s">
         <v>42</v>
@@ -1544,8 +1547,8 @@
       <c r="AA9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AB9" s="11" t="s">
-        <v>72</v>
+      <c r="AB9" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="AC9" s="12" t="s">
         <v>42</v>
@@ -1648,8 +1651,8 @@
       <c r="AA10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="AB10" s="11" t="s">
-        <v>72</v>
+      <c r="AB10" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="AC10" s="12" t="s">
         <v>42</v>
@@ -1752,8 +1755,8 @@
       <c r="AA11" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AB11" s="11" t="s">
-        <v>72</v>
+      <c r="AB11" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="AC11" s="12" t="s">
         <v>42</v>
@@ -1856,8 +1859,8 @@
       <c r="AA12" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="AB12" s="11" t="s">
-        <v>72</v>
+      <c r="AB12" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="AC12" s="12" t="s">
         <v>42</v>
@@ -1961,7 +1964,7 @@
         <v>61</v>
       </c>
       <c r="AB13" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC13" s="12" t="s">
         <v>62</v>
@@ -2065,7 +2068,7 @@
         <v>64</v>
       </c>
       <c r="AB14" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC14" s="12" t="s">
         <v>62</v>
@@ -2169,7 +2172,7 @@
         <v>65</v>
       </c>
       <c r="AB15" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC15" s="12" t="s">
         <v>62</v>
@@ -2273,7 +2276,7 @@
         <v>66</v>
       </c>
       <c r="AB16" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC16" s="12" t="s">
         <v>62</v>
@@ -2377,7 +2380,7 @@
         <v>68</v>
       </c>
       <c r="AB17" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC17" s="1" t="s">
         <v>69</v>
@@ -2481,7 +2484,7 @@
         <v>71</v>
       </c>
       <c r="AB18" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>69</v>
@@ -2582,7 +2585,7 @@
         <v>41</v>
       </c>
       <c r="AB19" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AC19" s="12" t="s">
         <v>42</v>
@@ -2683,7 +2686,7 @@
         <v>41</v>
       </c>
       <c r="AB20" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AC20" s="12" t="s">
         <v>42</v>
@@ -2784,7 +2787,7 @@
         <v>41</v>
       </c>
       <c r="AB21" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AC21" s="12" t="s">
         <v>42</v>
@@ -2885,7 +2888,7 @@
         <v>68</v>
       </c>
       <c r="AB22" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>69</v>
@@ -2989,7 +2992,7 @@
         <v>68</v>
       </c>
       <c r="AB23" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>69</v>
@@ -3093,7 +3096,7 @@
         <v>68</v>
       </c>
       <c r="AB24" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AC24" s="1" t="s">
         <v>69</v>

--- a/core/media/Plantilla_ejemplo.xlsx
+++ b/core/media/Plantilla_ejemplo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roark\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8A256D-5D18-4065-935B-A5CC0F1BBB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55E1C06-1F94-4644-98B6-256164BB75FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="1875" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="76">
   <si>
     <t>item</t>
   </si>
@@ -243,19 +243,16 @@
     <t>JPN-113-025 MK-14</t>
   </si>
   <si>
-    <t>2023-11-15</t>
-  </si>
-  <si>
-    <t>2023-11-20</t>
-  </si>
-  <si>
-    <t>2023-11-25</t>
-  </si>
-  <si>
-    <t>2023-12-15</t>
-  </si>
-  <si>
-    <t>2023-11-14</t>
+    <t>2023-12-10</t>
+  </si>
+  <si>
+    <t>2023-12-20</t>
+  </si>
+  <si>
+    <t>2023-12-30</t>
+  </si>
+  <si>
+    <t>2024-01-05</t>
   </si>
 </sst>
 </file>
@@ -340,7 +337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -378,9 +375,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
@@ -599,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AA31" sqref="AA31"/>
+    <sheetView tabSelected="1" topLeftCell="L7" workbookViewId="0">
+      <selection activeCell="AB24" sqref="AB24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -820,7 +814,7 @@
         <v>41</v>
       </c>
       <c r="AB2" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AC2" s="12" t="s">
         <v>42</v>
@@ -923,8 +917,8 @@
       <c r="AA3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AB3" s="19" t="s">
-        <v>76</v>
+      <c r="AB3" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="AC3" s="12" t="s">
         <v>42</v>
@@ -1027,8 +1021,8 @@
       <c r="AA4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="AB4" s="19" t="s">
-        <v>76</v>
+      <c r="AB4" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="AC4" s="12" t="s">
         <v>42</v>
@@ -1131,8 +1125,8 @@
       <c r="AA5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AB5" s="19" t="s">
-        <v>76</v>
+      <c r="AB5" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="AC5" s="12" t="s">
         <v>42</v>
@@ -1235,8 +1229,8 @@
       <c r="AA6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AB6" s="19" t="s">
-        <v>76</v>
+      <c r="AB6" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="AC6" s="12" t="s">
         <v>42</v>
@@ -1339,8 +1333,8 @@
       <c r="AA7" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AB7" s="19" t="s">
-        <v>76</v>
+      <c r="AB7" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="AC7" s="12" t="s">
         <v>42</v>
@@ -1443,8 +1437,8 @@
       <c r="AA8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AB8" s="19" t="s">
-        <v>76</v>
+      <c r="AB8" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="AC8" s="12" t="s">
         <v>42</v>
@@ -1547,8 +1541,8 @@
       <c r="AA9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AB9" s="19" t="s">
-        <v>76</v>
+      <c r="AB9" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="AC9" s="12" t="s">
         <v>42</v>
@@ -1651,8 +1645,8 @@
       <c r="AA10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="AB10" s="19" t="s">
-        <v>76</v>
+      <c r="AB10" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="AC10" s="12" t="s">
         <v>42</v>
@@ -1755,8 +1749,8 @@
       <c r="AA11" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AB11" s="19" t="s">
-        <v>76</v>
+      <c r="AB11" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="AC11" s="12" t="s">
         <v>42</v>
@@ -1859,8 +1853,8 @@
       <c r="AA12" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="AB12" s="19" t="s">
-        <v>76</v>
+      <c r="AB12" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="AC12" s="12" t="s">
         <v>42</v>
@@ -1964,7 +1958,7 @@
         <v>61</v>
       </c>
       <c r="AB13" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC13" s="12" t="s">
         <v>62</v>
@@ -2068,7 +2062,7 @@
         <v>64</v>
       </c>
       <c r="AB14" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC14" s="12" t="s">
         <v>62</v>
@@ -2172,7 +2166,7 @@
         <v>65</v>
       </c>
       <c r="AB15" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC15" s="12" t="s">
         <v>62</v>
@@ -2276,7 +2270,7 @@
         <v>66</v>
       </c>
       <c r="AB16" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC16" s="12" t="s">
         <v>62</v>
@@ -2380,7 +2374,7 @@
         <v>68</v>
       </c>
       <c r="AB17" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC17" s="1" t="s">
         <v>69</v>
@@ -2484,7 +2478,7 @@
         <v>71</v>
       </c>
       <c r="AB18" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>69</v>
@@ -2816,7 +2810,7 @@
         <v>67</v>
       </c>
       <c r="D22" s="1">
-        <v>18426</v>
+        <v>18428</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>48</v>
@@ -2920,7 +2914,7 @@
         <v>67</v>
       </c>
       <c r="D23" s="1">
-        <v>18426</v>
+        <v>18428</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>48</v>
@@ -3024,7 +3018,7 @@
         <v>67</v>
       </c>
       <c r="D24" s="1">
-        <v>18426</v>
+        <v>18428</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>48</v>
